--- a/biology/Médecine/Fidaxomicine/Fidaxomicine.xlsx
+++ b/biology/Médecine/Fidaxomicine/Fidaxomicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fidaxomicine, vendue entre autres sous le nom de marque Dificid.
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un antibiotique utilisé pour traiter la diarrhée à Clostridioides difficile [2]. Les preuves d'utilisation dans les maladies graves sont limitées et dans de tels cas, la vancomycine est préférée[2],[3]. Il est pris par voie orale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un antibiotique utilisé pour traiter la diarrhée à Clostridioides difficile . Les preuves d'utilisation dans les maladies graves sont limitées et dans de tels cas, la vancomycine est préférée,. Il est pris par voie orale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants sont les nausées et la constipation, d'autres effets secondaires peuvent être des saignements gastro-intestinaux, des douleurs abdominales, des réactions allergiques et des problèmes hépatiques  [4],[5] La sécurité pendant la grossesse et l'allaitement n'est pas claire[2]. Il s'agit d'un macrocyclique qui agit en bloquant l'ARN polymérase bactérienne[2],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants sont les nausées et la constipation, d'autres effets secondaires peuvent être des saignements gastro-intestinaux, des douleurs abdominales, des réactions allergiques et des problèmes hépatiques  , La sécurité pendant la grossesse et l'allaitement n'est pas claire. Il s'agit d'un macrocyclique qui agit en bloquant l'ARN polymérase bactérienne,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation médicale de la fidaxomicine a été approuvée aux États-Unis et en Europe en 2011 [3],[4]. Au Royaume-Uni, un traitement coûte au NHS environ 1 350 £ à partir de 2021[2]. Aux États-Unis, ce montant coûte environ 4 150 USD[6]. Il est fabriqué à partir de l'actinomycète Dactylosporangium aurantiacum [5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation médicale de la fidaxomicine a été approuvée aux États-Unis et en Europe en 2011 ,. Au Royaume-Uni, un traitement coûte au NHS environ 1 350 £ à partir de 2021. Aux États-Unis, ce montant coûte environ 4 150 USD. Il est fabriqué à partir de l'actinomycète Dactylosporangium aurantiacum .
 </t>
         </is>
       </c>
